--- a/biology/Botanique/Orvieto_(vin)/Orvieto_(vin).xlsx
+++ b/biology/Botanique/Orvieto_(vin)/Orvieto_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Orvieto est un vin blanc italien produit dans les régions d'Ombrie et du Latium. Il y a aussi une appellation Orvietano rosso.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville médiévale d’Orvieto est le centre d’une zone vitivinicole d’Ombrie à l’importance historique et économique majeure. Les vignobles s’étendent le long des chaînes de collines (Orvieto, Ficulle, Allerona, Alviano, Lugnano in Teverina), sur les rives gauche et droite du fleuve Paglia, jusqu’à sa rencontre avec le Tibre. L'aire de production s'étend également dans la province de Viterbe voisine, au Latium.
 </t>
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La production de vin à Orvieto remonte à l'Antiquité, au moins jusqu'aux Étrusques.
 Le vin d'Orvieto dans ses versions sucrées est resté populaire au cours des siècles. Ce vin alors doux fut célébré par les écrivains les poètes et de nombreux amateurs célèbres. Paolo Mantegazza, le comparait à de « l’or liquide » car il était souvent servi à la table des papes, cardinaux et aristocrates. Gabriele D’Annunzio le disait « soleil d’Italie dans une bouteille » à cause de son parfum, sa force et sa couleur. Le Pape Grégoire XVI ordonna que son corps fût lavé avec du vin Orvieto avant d’être enterré.
@@ -577,7 +593,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours des dernières années le caractère du vin a été renforcé par certains producteurs qui ont réduit les rendements, en procédant à une sélection plus méticuleuse et en laissant les peaux du raisin en contact avec le jus plus longtemps avant la fermentation. Il est fait en version secco, abboccato (demi-doux), amabile (moelleux), dolce (doux), superiore et vendemmia tardiva.Consorzio vini di Orvieto
 L'appellation Orvieto a une superficie de 3000 hectares. La production annuelle moyenne est de 150 000 hl. On n'y fait que du vin blanc. Consorzio vini di Orvieto
@@ -612,7 +630,9 @@
           <t>En rouge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation Orvietano rosso, plus petite (115 ha) a été créée afin de permettre de produire des rouges sur l'aire d'appellation Orvieto avec plusieurs cépages italiens (aleatico, barbera) et français (cabernets). Consorzio vini di Orvieto
 </t>
@@ -643,7 +663,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En sec : robe jaune paille. Arômes discrets de fleurs. Léger et bonne vivacité. Plus de longueur dans les Classico superiore. Durée de conservation de un à deux ans pour les secs. Température de service de 8 à 10 °C.
 </t>
@@ -674,7 +696,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jacques Orhon, Le nouveau guide des vins d'Italie, Éditions de l'Homme, 2007  p. 435</t>
         </is>
